--- a/TP2/Ej3/Ej3/Mediciones.xlsx
+++ b/TP2/Ej3/Ej3/Mediciones.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guido\Documents\GitHub\TC\TP2\Ej3\Ej3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF52E39C-F479-4220-AD25-B279F077B47E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B89834FF-8F49-4A2C-B8EA-4607AD065B42}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4170" yWindow="3525" windowWidth="15105" windowHeight="10590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21135" yWindow="3120" windowWidth="15105" windowHeight="10590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="22">
   <si>
     <t>Osciloscopio</t>
   </si>
@@ -88,6 +88,15 @@
   </si>
   <si>
     <t>SCOPE 3</t>
+  </si>
+  <si>
+    <t>Mediciones:LF356 con capa</t>
+  </si>
+  <si>
+    <t>Mediciones:TL081 CON CAPA</t>
+  </si>
+  <si>
+    <t>tl081</t>
   </si>
 </sst>
 </file>
@@ -437,7 +446,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
@@ -461,42 +470,48 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -777,39 +792,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P17"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="173" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="121" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" customWidth="1"/>
+    <col min="1" max="1" width="28" customWidth="1"/>
     <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
     </row>
     <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="16"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="36"/>
       <c r="E2" s="3" t="s">
         <v>1</v>
       </c>
@@ -819,7 +839,7 @@
       <c r="G2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="17" t="s">
         <v>4</v>
       </c>
       <c r="I2" s="5" t="s">
@@ -862,60 +882,60 @@
       <c r="G3" s="12"/>
       <c r="H3" s="11"/>
       <c r="I3" s="12"/>
-      <c r="J3" s="34" t="s">
+      <c r="J3" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="17"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="36" t="s">
+      <c r="K3" s="38"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
     </row>
     <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="24">
+      <c r="B4" s="21">
         <v>-1.3</v>
       </c>
-      <c r="C4" s="25">
+      <c r="C4" s="22">
         <v>-1.4431</v>
       </c>
-      <c r="D4" s="26">
+      <c r="D4" s="23">
         <v>-1.3903000000000001</v>
       </c>
-      <c r="E4" s="20">
+      <c r="E4" s="18">
         <f>B4*10/(10+9*10^3)</f>
         <v>-1.4428412874583796E-3</v>
       </c>
-      <c r="F4" s="29">
+      <c r="F4" s="25">
         <f>($C$4*(10/(10+9000))-E4)/1000000</f>
         <v>-1.5882352941176463E-10</v>
       </c>
-      <c r="G4" s="30">
+      <c r="G4" s="26">
         <f>($D$4*(10/(10+9000))-E4)/(1000000+10)</f>
         <v>-1.0022097337295226E-10</v>
       </c>
-      <c r="H4" s="31">
+      <c r="H4" s="27">
         <f>(F4+G4)/2</f>
         <v>-1.2952225139235844E-10</v>
       </c>
-      <c r="I4" s="30">
+      <c r="I4" s="26">
         <f>ABS(F4-G4)</f>
         <v>5.8602556038812373E-11</v>
       </c>
-      <c r="J4" s="27">
+      <c r="J4" s="24">
         <v>0.01</v>
       </c>
-      <c r="K4" s="27">
+      <c r="K4" s="24">
         <v>2.0000000000000001E-10</v>
       </c>
-      <c r="L4" s="33">
+      <c r="L4" s="28">
         <v>5.0000000000000002E-11</v>
       </c>
-      <c r="M4" s="27">
+      <c r="M4" s="24">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="N4" s="13">
@@ -926,24 +946,24 @@
       </c>
     </row>
     <row r="6" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J6" s="18" t="s">
+      <c r="J6" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="33"/>
     </row>
     <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="16"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="36"/>
       <c r="E7" s="3" t="s">
         <v>1</v>
       </c>
@@ -953,7 +973,7 @@
       <c r="G7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="19" t="s">
+      <c r="H7" s="17" t="s">
         <v>4</v>
       </c>
       <c r="I7" s="5" t="s">
@@ -996,60 +1016,60 @@
       <c r="G8" s="12"/>
       <c r="H8" s="11"/>
       <c r="I8" s="12"/>
-      <c r="J8" s="34" t="s">
+      <c r="J8" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="K8" s="17"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="36" t="s">
+      <c r="K8" s="38"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="N8" s="35"/>
-      <c r="O8" s="35"/>
+      <c r="N8" s="32"/>
+      <c r="O8" s="32"/>
     </row>
     <row r="9" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="37">
+      <c r="B9" s="29">
         <v>0.33800000000000002</v>
       </c>
-      <c r="C9" s="38">
+      <c r="C9" s="30">
         <v>0.34799999999999998</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="19">
         <v>0.28199999999999997</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E9" s="18">
         <f>B9*10/(10+9*10^3)</f>
         <v>3.7513873473917874E-4</v>
       </c>
-      <c r="F9" s="29">
+      <c r="F9" s="25">
         <f>(C9*(10/(10+9000))-E9)/1000000</f>
         <v>1.1098779134295135E-11</v>
       </c>
-      <c r="G9" s="30">
+      <c r="G9" s="26">
         <f>(D9*(10/(10+9000))-E9)/(1000000+10)</f>
         <v>-6.2152541626637083E-11</v>
       </c>
-      <c r="H9" s="31">
+      <c r="H9" s="27">
         <f>(F9+G9)/2</f>
         <v>-2.5526881246170974E-11</v>
       </c>
-      <c r="I9" s="30">
+      <c r="I9" s="26">
         <f>ABS(F9-G9)</f>
         <v>7.3251320760932213E-11</v>
       </c>
-      <c r="J9" s="27">
+      <c r="J9" s="24">
         <v>0.01</v>
       </c>
-      <c r="K9" s="27">
+      <c r="K9" s="24">
         <v>4.0000000000000001E-10</v>
       </c>
-      <c r="L9" s="33">
+      <c r="L9" s="28">
         <v>1E-10</v>
       </c>
-      <c r="M9" s="27">
+      <c r="M9" s="24">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="N9" s="13">
@@ -1070,16 +1090,143 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="I14" s="13"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="32"/>
-      <c r="P14" s="32"/>
+    <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E11">
+        <v>356</v>
+      </c>
+      <c r="J11" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="K11" s="33"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="33"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="33"/>
+    </row>
+    <row r="12" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="15"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="O12" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="10"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="K13" s="38"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="N13" s="32"/>
+      <c r="O13" s="32"/>
+    </row>
+    <row r="14" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="21">
+        <v>-1.36</v>
+      </c>
+      <c r="C14" s="22">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="D14" s="23">
+        <v>-1.47</v>
+      </c>
+      <c r="E14" s="18">
+        <f>B14*10/(10+9*10^3)</f>
+        <v>-1.5094339622641511E-3</v>
+      </c>
+      <c r="F14" s="25">
+        <f>($C$4*(10/(10+9000))-E14)/1000000</f>
+        <v>-9.2230854605993179E-11</v>
+      </c>
+      <c r="G14" s="26">
+        <f>($D$4*(10/(10+9000))-E14)/(1000000+10)</f>
+        <v>-3.3628964487269649E-11</v>
+      </c>
+      <c r="H14" s="27">
+        <f>(F14+G14)/2</f>
+        <v>-6.2929909546631414E-11</v>
+      </c>
+      <c r="I14" s="26">
+        <f>ABS(F14-G14)</f>
+        <v>5.8601890118723529E-11</v>
+      </c>
+      <c r="J14" s="24">
+        <v>0.01</v>
+      </c>
+      <c r="K14" s="24">
+        <v>2.0000000000000001E-10</v>
+      </c>
+      <c r="L14" s="28">
+        <v>5.0000000000000002E-11</v>
+      </c>
+      <c r="M14" s="24">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="N14" s="13">
+        <v>1.9999999999999999E-11</v>
+      </c>
+      <c r="O14" s="13">
+        <v>3.0000000000000001E-12</v>
+      </c>
+      <c r="P14" s="40"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="J15" s="1"/>
@@ -1096,14 +1243,159 @@
       <c r="M16" s="1"/>
       <c r="P16" s="13"/>
     </row>
-    <row r="17" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
     </row>
+    <row r="18" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E18" t="s">
+        <v>21</v>
+      </c>
+      <c r="J18" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="K18" s="33"/>
+      <c r="L18" s="33"/>
+      <c r="M18" s="33"/>
+      <c r="N18" s="33"/>
+      <c r="O18" s="33"/>
+    </row>
+    <row r="19" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="35"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H19" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N19" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="O19" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="10"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="K20" s="38"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="N20" s="32"/>
+      <c r="O20" s="32"/>
+    </row>
+    <row r="21" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="29">
+        <v>0.33200000000000002</v>
+      </c>
+      <c r="C21" s="30">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="D21" s="19">
+        <v>0.13819999999999999</v>
+      </c>
+      <c r="E21" s="18">
+        <f>B21*10/(10+9*10^3)</f>
+        <v>3.6847946725860161E-4</v>
+      </c>
+      <c r="F21" s="25">
+        <f>(C21*(10/(10+9000))-E21)/1000000</f>
+        <v>-1.4317425083240849E-10</v>
+      </c>
+      <c r="G21" s="26">
+        <f>(D21*(10/(10+9000))-E21)/(1000000+10)</f>
+        <v>-2.1509218870075456E-10</v>
+      </c>
+      <c r="H21" s="27">
+        <f>(F21+G21)/2</f>
+        <v>-1.7913321976658153E-10</v>
+      </c>
+      <c r="I21" s="26">
+        <f>ABS(F21-G21)</f>
+        <v>7.191793786834607E-11</v>
+      </c>
+      <c r="J21" s="24">
+        <v>0.01</v>
+      </c>
+      <c r="K21" s="24">
+        <v>4.0000000000000001E-10</v>
+      </c>
+      <c r="L21" s="28">
+        <v>1E-10</v>
+      </c>
+      <c r="M21" s="24">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="N21" s="13">
+        <v>1.9999999999999999E-11</v>
+      </c>
+      <c r="O21" s="13">
+        <v>4.9999999999999997E-12</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="15">
+    <mergeCell ref="J18:O18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="J11:O11"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:O13"/>
     <mergeCell ref="M3:O3"/>
     <mergeCell ref="J1:O1"/>
     <mergeCell ref="J6:O6"/>
@@ -1111,8 +1403,6 @@
     <mergeCell ref="J8:L8"/>
     <mergeCell ref="M8:O8"/>
     <mergeCell ref="B2:D2"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="J3:L3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
